--- a/src/testData/NameTest.xlsx
+++ b/src/testData/NameTest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t xml:space="preserve">NameSeq</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t xml:space="preserve">Yea's Jewellers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smithers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yea's Donuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornwall</t>
   </si>
 </sst>
 </file>
@@ -314,7 +326,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,18 +461,18 @@
         <v>32519</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>

--- a/src/testData/NameTest.xlsx
+++ b/src/testData/NameTest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t xml:space="preserve">NameSeq</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yea's Jewellers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloucester</t>
   </si>
   <si>
     <t xml:space="preserve">Tommy</t>
@@ -326,7 +329,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -437,7 +440,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>19</v>
@@ -461,18 +464,18 @@
         <v>32519</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>

--- a/src/testData/NameTest.xlsx
+++ b/src/testData/NameTest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t xml:space="preserve">NameSeq</t>
   </si>
@@ -88,6 +88,15 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
+    <t xml:space="preserve">Freddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smithers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornwall</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kelly</t>
   </si>
   <si>
@@ -103,13 +112,10 @@
     <t xml:space="preserve">Tommy</t>
   </si>
   <si>
-    <t xml:space="preserve">Smithers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yea's Donuts</t>
   </si>
   <si>
-    <t xml:space="preserve">Cornwall</t>
+    <t xml:space="preserve">John</t>
   </si>
 </sst>
 </file>
@@ -251,12 +257,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -326,17 +332,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,12 +425,12 @@
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>31423</v>
+        <v>32530</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>22</v>
@@ -435,12 +439,10 @@
         <v>23</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>19</v>
@@ -458,24 +460,24 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>32519</v>
+        <v>31423</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
@@ -490,6 +492,76 @@
         <v>21</v>
       </c>
       <c r="O4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>32519</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>32519</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
